--- a/GroupAssginment_Activity_ratios.xlsx
+++ b/GroupAssginment_Activity_ratios.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <r>
       <rPr>
@@ -140,6 +140,9 @@
     <t>BFC</t>
   </si>
   <si>
+    <t>HTV</t>
+  </si>
+  <si>
     <t>The accounts receivable turnover ratio is an important indicator that evaluates a company’s ability to collect short-term debts. When comparing the figures, we can observe significant differences between VINACHEM, DGC, VITRICHEM, and BFC during the 2021-2023 period.
 DGC consistently shows the highest accounts receivable turnover ratio, especially in 2022, with a value reaching 25, indicating fast debt collection and efficient cash flow management. However, this number dropped to 16 in 2023, suggesting that the company may have extended more credit or faced challenges in collecting debts.
 VINACHEM experienced a notable improvement from 12.89 (2021) to 14.39 (2022), but the ratio decreased to 11.46 in 2023. This indicates that the company’s ability to manage its receivables has weakened, possibly due to relaxed credit terms or difficulties in collecting from customers.
@@ -192,13 +195,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -911,7 +915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,19 +958,16 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1355,7 +1356,7 @@
                     <c:v>DGC</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>VITRICHEM</c:v>
+                    <c:v>HTV</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>BFC</c:v>
@@ -1368,19 +1369,19 @@
             <c:numRef>
               <c:f>Sheet1!$L$29:$L$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.90519692985316</c:v>
+                  <c:v>3.90538803756797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.76189166084202</c:v>
+                  <c:v>8.76531314521679</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.57557115739692</c:v>
+                  <c:v>8.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.67661056046524</c:v>
+                  <c:v>3.6758064516129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,7 +1429,7 @@
                     <c:v>DGC</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>VITRICHEM</c:v>
+                    <c:v>HTV</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>BFC</c:v>
@@ -1441,19 +1442,19 @@
             <c:numRef>
               <c:f>Sheet1!$M$29:$M$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.40777400346546</c:v>
+                  <c:v>3.40787930899711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.44796190528019</c:v>
+                  <c:v>6.45115303983228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.20836562591864</c:v>
+                  <c:v>9.18181818181818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.16117794835339</c:v>
+                  <c:v>3.16085350841198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1501,7 +1502,7 @@
                     <c:v>DGC</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>VITRICHEM</c:v>
+                    <c:v>HTV</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>BFC</c:v>
@@ -1514,19 +1515,19 @@
             <c:numRef>
               <c:f>Sheet1!$N$29:$N$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.66908764182911</c:v>
+                  <c:v>3.66917169726089</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.80073016546645</c:v>
+                  <c:v>6.80474649406688</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.32566181484257</c:v>
+                  <c:v>7.30960854092527</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.97811184174802</c:v>
+                  <c:v>3.97824397824398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1614,7 +1615,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1697,6 +1698,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{49e0d16b-41f7-486c-a6ea-149b2b02694a}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1828,7 +1834,7 @@
                     <c:v>DGC</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>VITRICHEM</c:v>
+                    <c:v>HTV</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>BFC</c:v>
@@ -1841,19 +1847,19 @@
             <c:numRef>
               <c:f>Sheet1!$T$29:$T$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.924845747903708</c:v>
+                  <c:v>0.924820887163741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.32676105782837</c:v>
+                  <c:v>1.32675743262017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.67232073269354</c:v>
+                  <c:v>1.67109295199183</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.24078960696928</c:v>
+                  <c:v>2.24081041968162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1901,7 +1907,7 @@
                     <c:v>DGC</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>VITRICHEM</c:v>
+                    <c:v>HTV</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>BFC</c:v>
@@ -1914,19 +1920,19 @@
             <c:numRef>
               <c:f>Sheet1!$U$29:$U$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.02168568229699</c:v>
+                  <c:v>1.02169293510204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.31755815680022</c:v>
+                  <c:v>1.317582668187</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.28517768966203</c:v>
+                  <c:v>2.28571428571429</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.10775386437865</c:v>
+                  <c:v>2.1078359125522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1974,7 +1980,7 @@
                     <c:v>DGC</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>VITRICHEM</c:v>
+                    <c:v>HTV</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>BFC</c:v>
@@ -1987,19 +1993,19 @@
             <c:numRef>
               <c:f>Sheet1!$V$29:$V$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.926058988255307</c:v>
+                  <c:v>0.926057498626625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.673645331761752</c:v>
+                  <c:v>0.673669661368348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7445698666195</c:v>
+                  <c:v>1.74358974358974</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.21827714040221</c:v>
+                  <c:v>2.21854817876518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2087,7 +2093,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2170,6 +2176,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{6df8c31a-49db-444c-9b9f-2b74d9975c12}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2301,7 +2312,7 @@
                     <c:v>DGC</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>VITRICHEM</c:v>
+                    <c:v>HTV</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>BFC</c:v>
@@ -2314,19 +2325,19 @@
             <c:numRef>
               <c:f>Sheet1!$D$29:$D$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12.8938299960843</c:v>
+                  <c:v>12.8947226709747</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.8341010771473</c:v>
+                  <c:v>13.8405797101449</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.3395592680083</c:v>
+                  <c:v>12.3939393939394</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.3928323454174</c:v>
+                  <c:v>21.4163208852006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2374,7 +2385,7 @@
                     <c:v>DGC</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>VITRICHEM</c:v>
+                    <c:v>HTV</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>BFC</c:v>
@@ -2387,19 +2398,19 @@
             <c:numRef>
               <c:f>Sheet1!$E$29:$E$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14.3945984909971</c:v>
+                  <c:v>14.3949547713084</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.2435709584782</c:v>
+                  <c:v>25.2517482517483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.7055363608538</c:v>
+                  <c:v>12.7407407407407</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.0478812437571</c:v>
+                  <c:v>22.0591259640103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2447,7 +2458,7 @@
                     <c:v>DGC</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>VITRICHEM</c:v>
+                    <c:v>HTV</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>BFC</c:v>
@@ -2460,19 +2471,19 @@
             <c:numRef>
               <c:f>Sheet1!$F$29:$F$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11.461002230939</c:v>
+                  <c:v>11.4610764872521</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.8290567018681</c:v>
+                  <c:v>15.8375304630382</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.2275041549942</c:v>
+                  <c:v>11.2321428571429</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.001157594445</c:v>
+                  <c:v>15.013986013986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2560,7 +2571,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2643,6 +2654,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{8914ec9a-cf6e-4cf5-b528-c20214c97b56}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4347,7 +4363,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7970520" y="6423025"/>
+        <a:off x="7970520" y="6461125"/>
         <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4377,7 +4393,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15438120" y="6403975"/>
+        <a:off x="15438120" y="6442075"/>
         <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4407,7 +4423,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="692150" y="6432550"/>
+        <a:off x="692150" y="6470650"/>
         <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4681,8 +4697,8 @@
   <sheetPr/>
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G23" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4748,6 +4764,7 @@
         <v>270</v>
       </c>
     </row>
+    <row r="4" ht="15.75"/>
     <row r="5" spans="1:22">
       <c r="A5" s="2" t="s">
         <v>8</v>
@@ -4797,37 +4814,37 @@
         <v>3</v>
       </c>
       <c r="D6" s="6">
-        <v>47890935603429</v>
+        <v>47891</v>
       </c>
       <c r="E6" s="7">
-        <v>56493459719089</v>
+        <v>56493</v>
       </c>
       <c r="F6" s="8">
-        <v>50572112579125</v>
+        <v>50572</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="6">
-        <v>39503407250022</v>
+        <v>39503</v>
       </c>
       <c r="M6" s="7">
-        <v>43597595278516</v>
+        <v>43597</v>
       </c>
       <c r="N6" s="8">
-        <v>44674575167208</v>
+        <v>44674</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T6" s="6">
-        <v>47890935603429</v>
+        <v>47890</v>
       </c>
       <c r="U6" s="7">
-        <v>56493459719089</v>
+        <v>56494</v>
       </c>
       <c r="V6" s="8">
-        <v>50572112579125</v>
+        <v>50572</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -4835,46 +4852,46 @@
         <v>9</v>
       </c>
       <c r="D7" s="6">
-        <f>(3370146016319+4058358255565)/2</f>
-        <v>3714252135942</v>
+        <f>(3370+4058)/2</f>
+        <v>3714</v>
       </c>
       <c r="E7" s="7">
-        <f>(4479112127897+3370146016319)/2</f>
-        <v>3924629072108</v>
+        <f>(4479+3370)/2</f>
+        <v>3924.5</v>
       </c>
       <c r="F7" s="8">
-        <f>(4487713434899+4337363388244)/2</f>
-        <v>4412538411571.5</v>
+        <f>(4488+4337)/2</f>
+        <v>4412.5</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="6">
-        <f>(8487966515211+11743232043837)/2</f>
-        <v>10115599279524</v>
+        <f>(8487+11743)/2</f>
+        <v>10115</v>
       </c>
       <c r="M7" s="7">
-        <f>(13844361711399+11742778300926)/2</f>
-        <v>12793570006162.5</v>
+        <f>(13844+11742)/2</f>
+        <v>12793</v>
       </c>
       <c r="N7" s="8">
-        <f>(10505436083920+13846435295711)/2</f>
-        <v>12175935689815.5</v>
+        <f>(10505+13846)/2</f>
+        <v>12175.5</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="T7" s="6">
-        <f>(53858637227809+49706602082596)/2</f>
-        <v>51782619655202.5</v>
+        <f>(53859+49707)/2</f>
+        <v>51783</v>
       </c>
       <c r="U7" s="7">
-        <f>(56739980858090+53848746571423)/2</f>
-        <v>55294363714756.5</v>
+        <f>(56740+53849)/2</f>
+        <v>55294.5</v>
       </c>
       <c r="V7" s="8">
-        <f>(52466691909350+56753375538843)/2</f>
-        <v>54610033724096.5</v>
+        <f>(52467+56753)/2</f>
+        <v>54610</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:22">
@@ -4885,15 +4902,15 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11">
         <f>D6/D7</f>
-        <v>12.8938299960843</v>
+        <v>12.8947226709747</v>
       </c>
       <c r="E8" s="12">
         <f>E6/E7</f>
-        <v>14.3945984909971</v>
+        <v>14.3949547713084</v>
       </c>
       <c r="F8" s="13">
         <f>F6/F7</f>
-        <v>11.461002230939</v>
+        <v>11.4610764872521</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>13</v>
@@ -4902,15 +4919,15 @@
       <c r="K8" s="10"/>
       <c r="L8" s="11">
         <f>L6/L7</f>
-        <v>3.90519692985316</v>
+        <v>3.90538803756797</v>
       </c>
       <c r="M8" s="12">
         <f>M6/M7</f>
-        <v>3.40777400346546</v>
+        <v>3.40787930899711</v>
       </c>
       <c r="N8" s="13">
         <f>N6/N7</f>
-        <v>3.66908764182911</v>
+        <v>3.66917169726089</v>
       </c>
       <c r="Q8" s="9" t="s">
         <v>14</v>
@@ -4919,17 +4936,18 @@
       <c r="S8" s="10"/>
       <c r="T8" s="11">
         <f>T6/T7</f>
-        <v>0.924845747903708</v>
+        <v>0.924820887163741</v>
       </c>
       <c r="U8" s="11">
         <f>U6/U7</f>
-        <v>1.02168568229699</v>
-      </c>
-      <c r="V8" s="18">
+        <v>1.02169293510204</v>
+      </c>
+      <c r="V8" s="14">
         <f>V6/V7</f>
-        <v>0.926058988255307</v>
+        <v>0.926057498626625</v>
       </c>
     </row>
+    <row r="10" ht="15.75"/>
     <row r="11" spans="1:22">
       <c r="A11" s="2" t="s">
         <v>15</v>
@@ -4979,37 +4997,37 @@
         <v>3</v>
       </c>
       <c r="D12" s="6">
-        <v>9550386235749</v>
+        <v>9550</v>
       </c>
       <c r="E12" s="7">
-        <v>14444110660905</v>
+        <v>14444</v>
       </c>
       <c r="F12" s="8">
-        <v>9748014757873</v>
+        <v>9748</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L12" s="6">
-        <v>6368029470264</v>
+        <v>6368</v>
       </c>
       <c r="M12" s="7">
-        <v>7693758504930</v>
+        <v>7693</v>
       </c>
       <c r="N12" s="8">
-        <v>6308034750907</v>
+        <v>6308</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T12" s="6">
-        <v>9550386235749</v>
+        <v>9550</v>
       </c>
       <c r="U12" s="7">
-        <v>14444110660905</v>
+        <v>14444</v>
       </c>
       <c r="V12" s="8">
-        <v>9748014757873</v>
+        <v>9748</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -5017,46 +5035,46 @@
         <v>9</v>
       </c>
       <c r="D13" s="6">
-        <f>(630346484850+750355619680)/2</f>
-        <v>690351052265</v>
+        <f>(630+750)/2</f>
+        <v>690</v>
       </c>
       <c r="E13" s="7">
-        <f>(514032865018+630346484850)/2</f>
-        <v>572189674934</v>
+        <f>(514+630)/2</f>
+        <v>572</v>
       </c>
       <c r="F13" s="8">
-        <f>(717627990265+514032865018)/2</f>
-        <v>615830427641.5</v>
+        <f>(717+514)/2</f>
+        <v>615.5</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="6">
-        <f>(1386431589969+67142527758)/2</f>
-        <v>726787058863.5</v>
+        <f>(1386+67)/2</f>
+        <v>726.5</v>
       </c>
       <c r="M13" s="7">
-        <f>(999984030331+1386431589969)/2</f>
-        <v>1193207810150</v>
+        <f>(999+1386)/2</f>
+        <v>1192.5</v>
       </c>
       <c r="N13" s="8">
-        <f>(999984030331+855121112037)/2</f>
-        <v>927552571184</v>
+        <f>(999+855)/2</f>
+        <v>927</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="T13" s="7">
-        <f>(8520393116371+5876149771888)/2</f>
-        <v>7198271444129.5</v>
+        <f>(8520+5876)/2</f>
+        <v>7198</v>
       </c>
       <c r="U13" s="7">
-        <f>(8520393116371+13405182747367)/2</f>
-        <v>10962787931869</v>
-      </c>
-      <c r="V13" s="20">
-        <f>(15535906274595+13405182747367)/2</f>
-        <v>14470544510981</v>
+        <f>(8520+13405)/2</f>
+        <v>10962.5</v>
+      </c>
+      <c r="V13" s="19">
+        <f>(15535+13405)/2</f>
+        <v>14470</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:22">
@@ -5065,17 +5083,17 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="14">
+      <c r="D14" s="11">
         <f>D12/D13</f>
-        <v>13.8341010771473</v>
-      </c>
-      <c r="E14" s="14">
+        <v>13.8405797101449</v>
+      </c>
+      <c r="E14" s="11">
         <f>E12/E13</f>
-        <v>25.2435709584782</v>
-      </c>
-      <c r="F14" s="15">
+        <v>25.2517482517483</v>
+      </c>
+      <c r="F14" s="14">
         <f>F12/F13</f>
-        <v>15.8290567018681</v>
+        <v>15.8375304630382</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>13</v>
@@ -5084,15 +5102,15 @@
       <c r="K14" s="10"/>
       <c r="L14" s="11">
         <f>L12/L13</f>
-        <v>8.76189166084202</v>
+        <v>8.76531314521679</v>
       </c>
       <c r="M14" s="11">
         <f>M12/M13</f>
-        <v>6.44796190528019</v>
-      </c>
-      <c r="N14" s="18">
+        <v>6.45115303983228</v>
+      </c>
+      <c r="N14" s="14">
         <f>N12/N13</f>
-        <v>6.80073016546645</v>
+        <v>6.80474649406688</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>14</v>
@@ -5101,17 +5119,18 @@
       <c r="S14" s="10"/>
       <c r="T14" s="11">
         <f>T12/T13</f>
-        <v>1.32676105782837</v>
+        <v>1.32675743262017</v>
       </c>
       <c r="U14" s="11">
         <f>U12/U13</f>
-        <v>1.31755815680022</v>
-      </c>
-      <c r="V14" s="18">
+        <v>1.317582668187</v>
+      </c>
+      <c r="V14" s="14">
         <f>V12/V13</f>
-        <v>0.673645331761752</v>
+        <v>0.673669661368348</v>
       </c>
     </row>
+    <row r="16" ht="15.75"/>
     <row r="17" spans="1:22">
       <c r="A17" s="2" t="s">
         <v>16</v>
@@ -5161,37 +5180,37 @@
         <v>3</v>
       </c>
       <c r="D18" s="6">
-        <v>818774003353</v>
+        <v>818</v>
       </c>
       <c r="E18" s="7">
-        <v>1376194472334</v>
+        <v>1376</v>
       </c>
       <c r="F18" s="8">
-        <v>1258744247907</v>
+        <v>1258</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L18" s="6">
-        <v>637398885865</v>
+        <v>637</v>
       </c>
       <c r="M18" s="7">
-        <v>1010790542295</v>
+        <v>1010</v>
       </c>
       <c r="N18" s="8">
-        <v>1027412805019</v>
+        <v>1027</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T18" s="6">
-        <v>818774003353</v>
+        <v>818</v>
       </c>
       <c r="U18" s="7">
-        <v>1376194472334</v>
+        <v>1376</v>
       </c>
       <c r="V18" s="8">
-        <v>1258744247907</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -5199,46 +5218,46 @@
         <v>9</v>
       </c>
       <c r="D19" s="6">
-        <f>(76552662225+56154509169)/2</f>
-        <v>66353585697</v>
+        <f>(76+56)/2</f>
+        <v>66</v>
       </c>
       <c r="E19" s="7">
-        <f>(76552662225+140076440750)/2</f>
-        <v>108314551487.5</v>
+        <f>(76+140)/2</f>
+        <v>108</v>
       </c>
       <c r="F19" s="8">
-        <f>(140076440750+84148681865)/2</f>
-        <v>112112561307.5</v>
+        <f>(140+84)/2</f>
+        <v>112</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="6">
-        <f>(78759516189+69895045511)/2</f>
-        <v>74327280850</v>
+        <f>(78+69)/2</f>
+        <v>73.5</v>
       </c>
       <c r="M19" s="7">
-        <f>(78759516189+140777931249)/2</f>
-        <v>109768723719</v>
+        <f>(79+141)/2</f>
+        <v>110</v>
       </c>
       <c r="N19" s="8">
-        <f>(140777931249+139718993394)/2</f>
-        <v>140248462321.5</v>
+        <f>(141+140)/2</f>
+        <v>140.5</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="T19" s="7">
-        <f>(516049128933+463157774798)/2</f>
-        <v>489603451865.5</v>
+        <f>(516+463)/2</f>
+        <v>489.5</v>
       </c>
       <c r="U19" s="7">
-        <f>(516049128933+688403792658)/2</f>
-        <v>602226460795.5</v>
-      </c>
-      <c r="V19" s="20">
-        <f>(688403792658+754638726867)/2</f>
-        <v>721521259762.5</v>
+        <f>(516+688)/2</f>
+        <v>602</v>
+      </c>
+      <c r="V19" s="19">
+        <f>(688+755)/2</f>
+        <v>721.5</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:22">
@@ -5247,17 +5266,17 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="14">
+      <c r="D20" s="11">
         <f>D18/D19</f>
-        <v>12.3395592680083</v>
-      </c>
-      <c r="E20" s="14">
+        <v>12.3939393939394</v>
+      </c>
+      <c r="E20" s="11">
         <f>E18/E19</f>
-        <v>12.7055363608538</v>
-      </c>
-      <c r="F20" s="15">
+        <v>12.7407407407407</v>
+      </c>
+      <c r="F20" s="14">
         <f>F18/F19</f>
-        <v>11.2275041549942</v>
+        <v>11.2321428571429</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>13</v>
@@ -5266,15 +5285,15 @@
       <c r="K20" s="10"/>
       <c r="L20" s="11">
         <f>L18/L19</f>
-        <v>8.57557115739692</v>
+        <v>8.66666666666667</v>
       </c>
       <c r="M20" s="11">
         <f>M18/M19</f>
-        <v>9.20836562591864</v>
-      </c>
-      <c r="N20" s="18">
+        <v>9.18181818181818</v>
+      </c>
+      <c r="N20" s="14">
         <f>N18/N19</f>
-        <v>7.32566181484257</v>
+        <v>7.30960854092527</v>
       </c>
       <c r="Q20" s="9" t="s">
         <v>14</v>
@@ -5283,17 +5302,18 @@
       <c r="S20" s="10"/>
       <c r="T20" s="11">
         <f>T18/T19</f>
-        <v>1.67232073269354</v>
+        <v>1.67109295199183</v>
       </c>
       <c r="U20" s="11">
         <f>U18/U19</f>
-        <v>2.28517768966203</v>
-      </c>
-      <c r="V20" s="18">
+        <v>2.28571428571429</v>
+      </c>
+      <c r="V20" s="14">
         <f>V18/V19</f>
-        <v>1.7445698666195</v>
+        <v>1.74358974358974</v>
       </c>
     </row>
+    <row r="22" ht="15.75"/>
     <row r="23" spans="1:22">
       <c r="A23" s="2" t="s">
         <v>17</v>
@@ -5343,37 +5363,37 @@
         <v>3</v>
       </c>
       <c r="D24" s="6">
-        <v>7742796484313</v>
+        <v>7742</v>
       </c>
       <c r="E24" s="7">
-        <v>8581358101346</v>
+        <v>8581</v>
       </c>
       <c r="F24" s="8">
-        <v>8588309084029</v>
+        <v>8588</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L24" s="6">
-        <v>6837873044540</v>
+        <v>6837</v>
       </c>
       <c r="M24" s="7">
-        <v>7703474073889</v>
+        <v>7703</v>
       </c>
       <c r="N24" s="8">
-        <v>7680240977445</v>
+        <v>7680</v>
       </c>
       <c r="Q24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T24" s="6">
-        <v>7742796484313</v>
+        <v>7742</v>
       </c>
       <c r="U24" s="7">
-        <v>8581358101346</v>
+        <v>8581</v>
       </c>
       <c r="V24" s="8">
-        <v>8588309084029</v>
+        <v>8588</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -5381,46 +5401,46 @@
         <v>9</v>
       </c>
       <c r="D25" s="6">
-        <f>(209162551480+514705738543)/2</f>
-        <v>361934145011.5</v>
+        <f>(209+514)/2</f>
+        <v>361.5</v>
       </c>
       <c r="E25" s="7">
-        <f>(209162551480+569266723104)/2</f>
-        <v>389214637292</v>
+        <f>(209+569)/2</f>
+        <v>389</v>
       </c>
       <c r="F25" s="8">
-        <f>(575752790218+569266723104)/2</f>
-        <v>572509756661</v>
+        <f>(575+569)/2</f>
+        <v>572</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="6">
-        <f>(2534995187662+1184666131961)/2</f>
-        <v>1859830659811.5</v>
+        <f>(2535+1185)/2</f>
+        <v>1860</v>
       </c>
       <c r="M25" s="7">
-        <f>(2534995187662+2338804515959)/2</f>
-        <v>2436899851810.5</v>
+        <f>(2535+2339)/2</f>
+        <v>2437</v>
       </c>
       <c r="N25" s="8">
-        <f>(2338804515959+1522444882233)/2</f>
-        <v>1930624699096</v>
+        <f>(2339+1522)/2</f>
+        <v>1930.5</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="T25" s="7">
-        <f>(3854080063879+3056695013113)/2</f>
-        <v>3455387538496</v>
+        <f>(3854+3056)/2</f>
+        <v>3455</v>
       </c>
       <c r="U25" s="7">
-        <f>(3854080063879+4288576672633)/2</f>
-        <v>4071328368256</v>
-      </c>
-      <c r="V25" s="20">
-        <f>(4288576672633+3454647947598)/2</f>
-        <v>3871612310115.5</v>
+        <f>(3854+4288)/2</f>
+        <v>4071</v>
+      </c>
+      <c r="V25" s="19">
+        <f>(4288+3454)/2</f>
+        <v>3871</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="1:22">
@@ -5429,17 +5449,17 @@
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="14">
+      <c r="D26" s="11">
         <f>D24/D25</f>
-        <v>21.3928323454174</v>
-      </c>
-      <c r="E26" s="14">
+        <v>21.4163208852006</v>
+      </c>
+      <c r="E26" s="11">
         <f>E24/E25</f>
-        <v>22.0478812437571</v>
-      </c>
-      <c r="F26" s="15">
+        <v>22.0591259640103</v>
+      </c>
+      <c r="F26" s="14">
         <f>F24/F25</f>
-        <v>15.001157594445</v>
+        <v>15.013986013986</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>13</v>
@@ -5448,15 +5468,15 @@
       <c r="K26" s="10"/>
       <c r="L26" s="11">
         <f>L24/L25</f>
-        <v>3.67661056046524</v>
+        <v>3.6758064516129</v>
       </c>
       <c r="M26" s="11">
         <f>M24/M25</f>
-        <v>3.16117794835339</v>
-      </c>
-      <c r="N26" s="18">
+        <v>3.16085350841198</v>
+      </c>
+      <c r="N26" s="14">
         <f>N24/N25</f>
-        <v>3.97811184174802</v>
+        <v>3.97824397824398</v>
       </c>
       <c r="Q26" s="9" t="s">
         <v>14</v>
@@ -5465,15 +5485,15 @@
       <c r="S26" s="10"/>
       <c r="T26" s="11">
         <f>T24/T25</f>
-        <v>2.24078960696928</v>
+        <v>2.24081041968162</v>
       </c>
       <c r="U26" s="11">
         <f>U24/U25</f>
-        <v>2.10775386437865</v>
-      </c>
-      <c r="V26" s="18">
+        <v>2.1078359125522</v>
+      </c>
+      <c r="V26" s="14">
         <f>V24/V25</f>
-        <v>2.21827714040221</v>
+        <v>2.21854817876518</v>
       </c>
     </row>
     <row r="28" spans="4:22">
@@ -5509,157 +5529,157 @@
       <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="D29">
-        <v>12.8938299960843</v>
-      </c>
-      <c r="E29">
-        <v>14.3945984909971</v>
-      </c>
-      <c r="F29">
-        <v>11.461002230939</v>
+      <c r="D29" s="15">
+        <v>12.8947226709747</v>
+      </c>
+      <c r="E29" s="15">
+        <v>14.3949547713084</v>
+      </c>
+      <c r="F29" s="15">
+        <v>11.4610764872521</v>
       </c>
       <c r="I29" t="s">
         <v>8</v>
       </c>
-      <c r="L29">
-        <v>3.90519692985316</v>
-      </c>
-      <c r="M29">
-        <v>3.40777400346546</v>
-      </c>
-      <c r="N29">
-        <v>3.66908764182911</v>
+      <c r="L29" s="15">
+        <v>3.90538803756797</v>
+      </c>
+      <c r="M29" s="15">
+        <v>3.40787930899711</v>
+      </c>
+      <c r="N29" s="15">
+        <v>3.66917169726089</v>
       </c>
       <c r="Q29" t="s">
         <v>8</v>
       </c>
-      <c r="T29">
-        <v>0.924845747903708</v>
-      </c>
-      <c r="U29">
-        <v>1.02168568229699</v>
-      </c>
-      <c r="V29">
-        <v>0.926058988255307</v>
+      <c r="T29" s="15">
+        <v>0.924820887163741</v>
+      </c>
+      <c r="U29" s="15">
+        <v>1.02169293510204</v>
+      </c>
+      <c r="V29" s="15">
+        <v>0.926057498626625</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>15</v>
       </c>
-      <c r="D30">
-        <v>13.8341010771473</v>
-      </c>
-      <c r="E30">
-        <v>25.2435709584782</v>
-      </c>
-      <c r="F30">
-        <v>15.8290567018681</v>
+      <c r="D30" s="15">
+        <v>13.8405797101449</v>
+      </c>
+      <c r="E30" s="15">
+        <v>25.2517482517483</v>
+      </c>
+      <c r="F30" s="15">
+        <v>15.8375304630382</v>
       </c>
       <c r="I30" t="s">
         <v>15</v>
       </c>
-      <c r="L30">
-        <v>8.76189166084202</v>
-      </c>
-      <c r="M30">
-        <v>6.44796190528019</v>
-      </c>
-      <c r="N30">
-        <v>6.80073016546645</v>
+      <c r="L30" s="15">
+        <v>8.76531314521679</v>
+      </c>
+      <c r="M30" s="15">
+        <v>6.45115303983228</v>
+      </c>
+      <c r="N30" s="15">
+        <v>6.80474649406688</v>
       </c>
       <c r="Q30" t="s">
         <v>15</v>
       </c>
-      <c r="T30">
-        <v>1.32676105782837</v>
-      </c>
-      <c r="U30">
-        <v>1.31755815680022</v>
-      </c>
-      <c r="V30">
-        <v>0.673645331761752</v>
+      <c r="T30" s="15">
+        <v>1.32675743262017</v>
+      </c>
+      <c r="U30" s="15">
+        <v>1.317582668187</v>
+      </c>
+      <c r="V30" s="15">
+        <v>0.673669661368348</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31">
-        <v>12.3395592680083</v>
-      </c>
-      <c r="E31">
-        <v>12.7055363608538</v>
-      </c>
-      <c r="F31">
-        <v>11.2275041549942</v>
+        <v>18</v>
+      </c>
+      <c r="D31" s="15">
+        <v>12.3939393939394</v>
+      </c>
+      <c r="E31" s="15">
+        <v>12.7407407407407</v>
+      </c>
+      <c r="F31" s="15">
+        <v>11.2321428571429</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
-      </c>
-      <c r="L31">
-        <v>8.57557115739692</v>
-      </c>
-      <c r="M31">
-        <v>9.20836562591864</v>
-      </c>
-      <c r="N31">
-        <v>7.32566181484257</v>
+        <v>18</v>
+      </c>
+      <c r="L31" s="15">
+        <v>8.66666666666667</v>
+      </c>
+      <c r="M31" s="15">
+        <v>9.18181818181818</v>
+      </c>
+      <c r="N31" s="15">
+        <v>7.30960854092527</v>
       </c>
       <c r="Q31" t="s">
-        <v>16</v>
-      </c>
-      <c r="T31">
-        <v>1.67232073269354</v>
-      </c>
-      <c r="U31">
-        <v>2.28517768966203</v>
-      </c>
-      <c r="V31">
-        <v>1.7445698666195</v>
+        <v>18</v>
+      </c>
+      <c r="T31" s="15">
+        <v>1.67109295199183</v>
+      </c>
+      <c r="U31" s="15">
+        <v>2.28571428571429</v>
+      </c>
+      <c r="V31" s="15">
+        <v>1.74358974358974</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>17</v>
       </c>
-      <c r="D32">
-        <v>21.3928323454174</v>
-      </c>
-      <c r="E32">
-        <v>22.0478812437571</v>
-      </c>
-      <c r="F32">
-        <v>15.001157594445</v>
+      <c r="D32" s="15">
+        <v>21.4163208852006</v>
+      </c>
+      <c r="E32" s="15">
+        <v>22.0591259640103</v>
+      </c>
+      <c r="F32" s="15">
+        <v>15.013986013986</v>
       </c>
       <c r="I32" t="s">
         <v>17</v>
       </c>
-      <c r="L32">
-        <v>3.67661056046524</v>
-      </c>
-      <c r="M32">
-        <v>3.16117794835339</v>
-      </c>
-      <c r="N32">
-        <v>3.97811184174802</v>
+      <c r="L32" s="15">
+        <v>3.6758064516129</v>
+      </c>
+      <c r="M32" s="15">
+        <v>3.16085350841198</v>
+      </c>
+      <c r="N32" s="15">
+        <v>3.97824397824398</v>
       </c>
       <c r="Q32" t="s">
         <v>17</v>
       </c>
-      <c r="T32">
-        <v>2.24078960696928</v>
-      </c>
-      <c r="U32">
-        <v>2.10775386437865</v>
-      </c>
-      <c r="V32">
-        <v>2.21827714040221</v>
+      <c r="T32" s="15">
+        <v>2.24081041968162</v>
+      </c>
+      <c r="U32" s="15">
+        <v>2.1078359125522</v>
+      </c>
+      <c r="V32" s="15">
+        <v>2.21854817876518</v>
       </c>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -5667,20 +5687,20 @@
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
       <c r="I50" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
       <c r="R50" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="16"/>
@@ -5689,17 +5709,17 @@
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="16"/>
@@ -5708,17 +5728,17 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="16"/>
@@ -5727,17 +5747,17 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="16"/>
@@ -5746,17 +5766,17 @@
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
-      <c r="V54" s="19"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="16"/>
@@ -5765,17 +5785,17 @@
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="16"/>
@@ -5784,17 +5804,17 @@
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="19"/>
-      <c r="U56" s="19"/>
-      <c r="V56" s="19"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="16"/>
@@ -5803,17 +5823,17 @@
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="16"/>
@@ -5822,17 +5842,17 @@
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="18"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="16"/>
@@ -5841,17 +5861,17 @@
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="16"/>
@@ -5860,17 +5880,17 @@
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="18"/>
+      <c r="V60" s="18"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="16"/>
@@ -5879,17 +5899,17 @@
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19"/>
-      <c r="U61" s="19"/>
-      <c r="V61" s="19"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="18"/>
+      <c r="U61" s="18"/>
+      <c r="V61" s="18"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="16"/>
@@ -5898,17 +5918,17 @@
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="18"/>
+      <c r="V62" s="18"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="16"/>
@@ -5917,17 +5937,17 @@
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="19"/>
-      <c r="U63" s="19"/>
-      <c r="V63" s="19"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="18"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="16"/>
@@ -5936,17 +5956,17 @@
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="R64" s="19"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="19"/>
-      <c r="U64" s="19"/>
-      <c r="V64" s="19"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="18"/>
+      <c r="U64" s="18"/>
+      <c r="V64" s="18"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="16"/>
@@ -5955,17 +5975,17 @@
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19"/>
-      <c r="U65" s="19"/>
-      <c r="V65" s="19"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="18"/>
+      <c r="U65" s="18"/>
+      <c r="V65" s="18"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="16"/>
@@ -5974,341 +5994,341 @@
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
-      <c r="V66" s="19"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
+      <c r="U66" s="18"/>
+      <c r="V66" s="18"/>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
+        <v>22</v>
+      </c>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
       <c r="I72" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
       <c r="R72" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
-      <c r="U72" s="19"/>
-      <c r="V72" s="19"/>
+        <v>24</v>
+      </c>
+      <c r="S72" s="18"/>
+      <c r="T72" s="18"/>
+      <c r="U72" s="18"/>
+      <c r="V72" s="18"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19"/>
-      <c r="T73" s="19"/>
-      <c r="U73" s="19"/>
-      <c r="V73" s="19"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="18"/>
+      <c r="U73" s="18"/>
+      <c r="V73" s="18"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="R74" s="19"/>
-      <c r="S74" s="19"/>
-      <c r="T74" s="19"/>
-      <c r="U74" s="19"/>
-      <c r="V74" s="19"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18"/>
+      <c r="U74" s="18"/>
+      <c r="V74" s="18"/>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19"/>
-      <c r="T75" s="19"/>
-      <c r="U75" s="19"/>
-      <c r="V75" s="19"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18"/>
+      <c r="U75" s="18"/>
+      <c r="V75" s="18"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="R76" s="19"/>
-      <c r="S76" s="19"/>
-      <c r="T76" s="19"/>
-      <c r="U76" s="19"/>
-      <c r="V76" s="19"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="18"/>
+      <c r="U76" s="18"/>
+      <c r="V76" s="18"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="19"/>
-      <c r="T77" s="19"/>
-      <c r="U77" s="19"/>
-      <c r="V77" s="19"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="R77" s="18"/>
+      <c r="S77" s="18"/>
+      <c r="T77" s="18"/>
+      <c r="U77" s="18"/>
+      <c r="V77" s="18"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="R78" s="19"/>
-      <c r="S78" s="19"/>
-      <c r="T78" s="19"/>
-      <c r="U78" s="19"/>
-      <c r="V78" s="19"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="18"/>
+      <c r="T78" s="18"/>
+      <c r="U78" s="18"/>
+      <c r="V78" s="18"/>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="19"/>
-      <c r="U79" s="19"/>
-      <c r="V79" s="19"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="R79" s="18"/>
+      <c r="S79" s="18"/>
+      <c r="T79" s="18"/>
+      <c r="U79" s="18"/>
+      <c r="V79" s="18"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="R80" s="19"/>
-      <c r="S80" s="19"/>
-      <c r="T80" s="19"/>
-      <c r="U80" s="19"/>
-      <c r="V80" s="19"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="18"/>
+      <c r="V80" s="18"/>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-      <c r="T81" s="19"/>
-      <c r="U81" s="19"/>
-      <c r="V81" s="19"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="18"/>
+      <c r="V81" s="18"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="R82" s="19"/>
-      <c r="S82" s="19"/>
-      <c r="T82" s="19"/>
-      <c r="U82" s="19"/>
-      <c r="V82" s="19"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="18"/>
+      <c r="U82" s="18"/>
+      <c r="V82" s="18"/>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="R83" s="19"/>
-      <c r="S83" s="19"/>
-      <c r="T83" s="19"/>
-      <c r="U83" s="19"/>
-      <c r="V83" s="19"/>
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="18"/>
+      <c r="U83" s="18"/>
+      <c r="V83" s="18"/>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-      <c r="R84" s="19"/>
-      <c r="S84" s="19"/>
-      <c r="T84" s="19"/>
-      <c r="U84" s="19"/>
-      <c r="V84" s="19"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
+      <c r="U84" s="18"/>
+      <c r="V84" s="18"/>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19"/>
-      <c r="R85" s="19"/>
-      <c r="S85" s="19"/>
-      <c r="T85" s="19"/>
-      <c r="U85" s="19"/>
-      <c r="V85" s="19"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="18"/>
+      <c r="V85" s="18"/>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="R86" s="19"/>
-      <c r="S86" s="19"/>
-      <c r="T86" s="19"/>
-      <c r="U86" s="19"/>
-      <c r="V86" s="19"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="18"/>
+      <c r="U86" s="18"/>
+      <c r="V86" s="18"/>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="R87" s="19"/>
-      <c r="S87" s="19"/>
-      <c r="T87" s="19"/>
-      <c r="U87" s="19"/>
-      <c r="V87" s="19"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="18"/>
+      <c r="U87" s="18"/>
+      <c r="V87" s="18"/>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="66">
